--- a/data/trans_orig/TAM_FAM-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/TAM_FAM-Estudios-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>2,57</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,13; 2,3</t>
+          <t>2,36; 2,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,55; 3,09</t>
+          <t>2,24; 2,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,19; 2,39</t>
+          <t>2,23; 2,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,77; 2,96</t>
+          <t>2,54; 3,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,96; 2,11</t>
+          <t>2,03; 2,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,25; 2,65</t>
+          <t>2,1; 2,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,03; 2,17</t>
+          <t>1,98; 2,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,41; 2,57</t>
+          <t>2,23; 2,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,05; 2,17</t>
+          <t>2,19; 2,33</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,45; 2,78</t>
+          <t>2,17; 2,36</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,11; 2,23</t>
+          <t>2,12; 2,26</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,59; 2,72</t>
+          <t>2,42; 2,75</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>2,67</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2,95</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2,77</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3,01</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>2,71</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>3,01</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>2,74</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>2,67</t>
-        </is>
-      </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>2,98</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2,75</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>3,04</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>2,91</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>2,77</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,58; 2,7</t>
+          <t>2,7; 2,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>2,78; 3,43</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2,67; 2,79</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>2,97; 3,16</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,76; 2,92</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>2,77; 2,85</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,65; 2,77</t>
+          <t>2,61; 2,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,91; 3,12</t>
+          <t>2,78; 3,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,95; 3,05</t>
+          <t>2,71; 2,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,7; 2,78</t>
+          <t>2,91; 3,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 2,72</t>
+          <t>2,67; 2,74</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,97; 3,11</t>
+          <t>2,87; 3,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,87; 2,97</t>
+          <t>2,71; 2,8</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,75; 2,8</t>
+          <t>2,98; 3,11</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>2,78</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2,73</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>2,83</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,8</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,82</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>2,85</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2,74</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>2,76</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>2,85</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>2,91</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>2,81</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2,73</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>2,79</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>2,82</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>2,87</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 2,75</t>
+          <t>2,72; 2,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>2,67; 2,9</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2,63; 2,85</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>2,72; 2,93</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,69; 2,9</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>2,75; 2,9</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,6; 2,77</t>
+          <t>2,79; 2,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,66; 2,87</t>
+          <t>2,75; 2,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,77; 2,93</t>
+          <t>2,66; 2,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,84; 2,98</t>
+          <t>2,66; 2,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,6; 2,73</t>
+          <t>2,79; 2,9</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
+          <t>2,73; 2,89</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2,66; 2,8</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>2,72; 2,86</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>2,76; 2,89</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>2,82; 2,92</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>2,94</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2,63</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2,8</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2,64</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>2,82</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>2,55</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>2,83</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>2,77</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>2,73</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>2,84</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2,65</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>2,88</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>2,75</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>2,77</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,51; 2,6</t>
+          <t>2,68; 2,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,87; 3,02</t>
+          <t>2,73; 3,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,69; 2,81</t>
+          <t>2,62; 2,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,78; 2,86</t>
+          <t>2,87; 3,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,51; 2,59</t>
+          <t>2,59; 2,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,76; 2,91</t>
+          <t>2,71; 2,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,73; 2,82</t>
+          <t>2,6; 2,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,7; 2,76</t>
+          <t>2,75; 2,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,52; 2,59</t>
+          <t>2,65; 2,7</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,83; 2,94</t>
+          <t>2,76; 3,07</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,72; 2,79</t>
+          <t>2,62; 2,69</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,75; 2,8</t>
+          <t>2,83; 2,93</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/TAM_FAM-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/TAM_FAM-Estudios-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Número de personas (Tamaño familiar)</t>
+          <t>Número de personas (Tamaño familiar) (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/TAM_FAM-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/TAM_FAM-Estudios-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,36; 2,59</t>
+          <t>2,49; 2,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,24; 2,55</t>
+          <t>2,21; 2,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,54; 3,07</t>
+          <t>2,56; 3,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,03; 2,21</t>
+          <t>2,15; 2,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,1; 2,31</t>
+          <t>2,1; 2,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,23; 2,61</t>
+          <t>2,24; 2,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,19; 2,33</t>
+          <t>2,31; 2,48</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 2,36</t>
+          <t>2,18; 2,35</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,7; 2,8</t>
+          <t>2,83; 2,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -884,12 +884,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 2,71</t>
+          <t>2,71; 2,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,78; 3,03</t>
+          <t>2,77; 3,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,91; 3,13</t>
+          <t>2,91; 3,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 2,74</t>
+          <t>2,79; 2,87</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,87; 3,24</t>
+          <t>2,86; 3,25</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,98; 3,11</t>
+          <t>2,97; 3,11</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 2,89</t>
+          <t>2,91; 3,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,67; 2,9</t>
+          <t>2,65; 2,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,12 +1019,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 2,93</t>
+          <t>2,73; 2,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,79; 2,94</t>
+          <t>2,87; 3,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,66; 2,88</t>
+          <t>2,67; 2,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,79; 2,9</t>
+          <t>2,92; 3,02</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,73; 2,89</t>
+          <t>2,73; 2,9</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 2,86</t>
+          <t>2,72; 2,87</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,68; 2,76</t>
+          <t>2,84; 2,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,73; 3,24</t>
+          <t>2,73; 3,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,87; 3,01</t>
+          <t>2,88; 3,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,59; 2,66</t>
+          <t>2,7; 2,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,71; 2,86</t>
+          <t>2,71; 2,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,75; 2,89</t>
+          <t>2,76; 2,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,65; 2,7</t>
+          <t>2,77; 2,83</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,76; 3,07</t>
+          <t>2,76; 3,06</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">

--- a/data/trans_orig/TAM_FAM-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/TAM_FAM-Estudios-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>2,42</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2,77</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2,33</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>2,61</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,37</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,33</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,77</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>2,24</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2,41</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2,07</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>2,25</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,2</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>2,07</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>2,41</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>2,31</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2,57</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2,18</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>2,4</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>2,27</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>2,18</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>2,57</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>2,26; 2,59</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2,56; 3,1</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2,23; 2,45</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>2,49; 2,76</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>2,21; 2,55</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,23; 2,45</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>2,56; 3,1</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>2,13; 2,36</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2,24; 2,63</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1,98; 2,16</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>2,15; 2,37</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>2,1; 2,32</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>1,98; 2,16</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>2,24; 2,63</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>2,22; 2,39</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2,42; 2,75</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2,12; 2,26</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>2,31; 2,48</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>2,18; 2,35</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>2,12; 2,26</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>2,42; 2,75</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>2,83</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3,06</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2,73</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>2,89</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,02</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,73</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,06</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>3,03</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3,01</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2,77</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>2,76</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,95</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>2,77</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>3,01</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>2,93</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3,04</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2,75</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>2,83</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>2,98</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>2,75</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>3,04</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>2,75; 2,91</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2,97; 3,16</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2,67; 2,79</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>2,83; 2,94</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,78; 3,43</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,67; 2,79</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>2,97; 3,16</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>2,96; 3,12</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2,91; 3,12</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2,71; 2,84</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>2,71; 2,81</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>2,77; 3,02</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>2,71; 2,84</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>2,91; 3,12</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>2,88; 2,99</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2,97; 3,11</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2,71; 2,8</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>2,79; 2,87</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>2,86; 3,25</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>2,71; 2,8</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>2,97; 3,11</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2,77</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,83</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2,73</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>2,99</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,78</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2,86</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2,76</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2,74</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2,95</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2,81</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2,79</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
         <is>
           <t>2,73</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,83</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,95</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>2,85</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>2,74</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>2,76</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>2,97</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>2,81</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>2,73</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>2,79</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>2,64; 2,88</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2,73; 2,93</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2,63; 2,85</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>2,91; 3,07</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2,65; 2,89</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,63; 2,85</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>2,73; 2,93</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>2,77; 2,96</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2,67; 2,88</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2,66; 2,83</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>2,87; 3,02</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>2,75; 2,96</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>2,66; 2,83</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>2,67; 2,88</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>2,74; 2,9</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2,72; 2,87</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2,66; 2,8</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>2,92; 3,02</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>2,73; 2,9</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>2,66; 2,8</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>2,72; 2,87</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>2,76</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2,94</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2,67</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>2,88</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,89</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,67</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,94</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>2,84</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2,82</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2,64</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>2,74</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>2,8</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>2,64</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>2,82</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>2,88</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2,65</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>2,81</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>2,84</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>2,65</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>2,88</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>2,7; 2,83</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2,88; 3,02</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2,62; 2,72</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>2,84; 2,92</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,73; 3,26</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,62; 2,72</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>2,88; 3,02</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>2,79; 2,89</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2,76; 2,9</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2,6; 2,69</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>2,7; 2,78</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>2,71; 2,87</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>2,6; 2,69</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>2,76; 2,9</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>2,76; 2,85</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>2,83; 2,93</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2,62; 2,69</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>2,77; 2,83</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>2,76; 3,06</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>2,62; 2,69</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>2,83; 2,93</t>
         </is>
       </c>
     </row>
